--- a/data/management/Management_information_GGE_2019.xlsx
+++ b/data/management/Management_information_GGE_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Downloads/New_Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92387A7F-6C4D-4B48-8648-B2BCE8E07DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4DCB1-2D35-2346-9A06-4446D42F296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>Irrigation</t>
   </si>
   <si>
-    <t>KAS 27</t>
-  </si>
-  <si>
     <t>70gr/ha, 1l/ha,  2,5l/ha</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>high nitrogen, with fungicide (HN_WF_IR)</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>67</v>
@@ -1311,7 +1311,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>68</v>
@@ -1320,32 +1320,32 @@
         <v>43553</v>
       </c>
       <c r="H44" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="J44" s="21" t="s">
         <v>52</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M44" s="24">
         <v>43396</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O44" s="28"/>
       <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>8</v>
@@ -1357,7 +1357,7 @@
         <v>60</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>12</v>
@@ -1369,23 +1369,23 @@
         <v>53</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M45" s="26">
         <v>43580</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O45" s="28"/>
       <c r="P45" s="29"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>9</v>
@@ -1403,23 +1403,23 @@
         <v>54</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M46" s="26">
         <v>43621</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O46" s="28"/>
       <c r="P46" s="29"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>10</v>
@@ -1437,10 +1437,10 @@
         <v>55</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1534,10 +1534,10 @@
         <v>43580</v>
       </c>
       <c r="H51" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="55" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>67</v>
@@ -1633,7 +1633,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>68</v>
@@ -1642,30 +1642,30 @@
         <v>43553</v>
       </c>
       <c r="H55" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M55" s="24">
         <v>43396</v>
       </c>
       <c r="N55" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>8</v>
@@ -1677,7 +1677,7 @@
         <v>60</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>12</v>
@@ -1689,21 +1689,21 @@
         <v>53</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M56" s="26">
         <v>43580</v>
       </c>
       <c r="N56" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>9</v>
@@ -1718,30 +1718,30 @@
         <v>43584</v>
       </c>
       <c r="H57" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M57" s="26">
         <v>43621</v>
       </c>
       <c r="N57" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>10</v>
@@ -1759,17 +1759,17 @@
         <v>55</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1782,10 +1782,10 @@
         <v>43580</v>
       </c>
       <c r="H59" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>56</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1810,10 +1810,10 @@
         <v>43628</v>
       </c>
       <c r="H60" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>57</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1860,10 +1860,10 @@
         <v>43580</v>
       </c>
       <c r="H62" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="66" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>67</v>
@@ -1949,7 +1949,7 @@
         <v>50</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>68</v>
@@ -1958,30 +1958,30 @@
         <v>43553</v>
       </c>
       <c r="H66" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M66" s="24">
         <v>43396</v>
       </c>
       <c r="N66" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>8</v>
@@ -1993,7 +1993,7 @@
         <v>110</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>12</v>
@@ -2005,21 +2005,21 @@
         <v>53</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M67" s="26">
         <v>43580</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>9</v>
@@ -2031,7 +2031,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>69</v>
@@ -2043,21 +2043,21 @@
         <v>54</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M68" s="26">
         <v>43621</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>10</v>
@@ -2075,17 +2075,17 @@
         <v>55</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2164,10 +2164,10 @@
         <v>43580</v>
       </c>
       <c r="H73" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>67</v>
@@ -2253,7 +2253,7 @@
         <v>50</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>68</v>
@@ -2262,30 +2262,30 @@
         <v>43553</v>
       </c>
       <c r="H77" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="I77" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M77" s="24">
         <v>43396</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>8</v>
@@ -2297,7 +2297,7 @@
         <v>110</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>12</v>
@@ -2309,21 +2309,21 @@
         <v>53</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M78" s="26">
         <v>43580</v>
       </c>
       <c r="N78" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>9</v>
@@ -2335,7 +2335,7 @@
         <v>60</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>69</v>
@@ -2344,30 +2344,30 @@
         <v>43584</v>
       </c>
       <c r="H79" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M79" s="26">
         <v>43621</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>10</v>
@@ -2385,17 +2385,17 @@
         <v>55</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M80" s="23"/>
       <c r="N80" s="23"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2408,10 +2408,10 @@
         <v>43580</v>
       </c>
       <c r="H81" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>56</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2436,10 +2436,10 @@
         <v>43628</v>
       </c>
       <c r="H82" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>57</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2486,10 +2486,10 @@
         <v>43580</v>
       </c>
       <c r="H84" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2575,7 +2575,7 @@
         <v>50</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>68</v>
@@ -2584,25 +2584,25 @@
         <v>43553</v>
       </c>
       <c r="H88" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M88" s="24">
         <v>43396</v>
       </c>
       <c r="N88" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
         <v>110</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>12</v>
@@ -2631,10 +2631,10 @@
         <v>53</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M89" s="26"/>
       <c r="N89" s="23"/>
@@ -2653,7 +2653,7 @@
         <v>60</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>69</v>
@@ -2662,19 +2662,19 @@
         <v>43584</v>
       </c>
       <c r="H90" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I90" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M90" s="26"/>
       <c r="N90" s="23"/>
@@ -2699,10 +2699,10 @@
         <v>55</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
@@ -2722,10 +2722,10 @@
         <v>43580</v>
       </c>
       <c r="H92" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>56</v>
@@ -2750,10 +2750,10 @@
         <v>43628</v>
       </c>
       <c r="H93" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I93" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="I93" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="J93" s="8" t="s">
         <v>57</v>
@@ -2800,10 +2800,10 @@
         <v>43580</v>
       </c>
       <c r="H95" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
